--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_425__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_425__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,7 +5987,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>84.27179718017578</c:v>
+                  <c:v>84.27178955078125</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.275799512863159</c:v>
@@ -5999,7 +5999,7 @@
                   <c:v>2.275799512863159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.44269561767578</c:v>
+                  <c:v>99.44268035888672</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>113.0270919799805</c:v>
@@ -6011,13 +6011,13 @@
                   <c:v>2.275799512863159</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.50808525085449</c:v>
+                  <c:v>22.50812339782715</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>98.38528442382812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.31022644042969</c:v>
+                  <c:v>87.31023406982422</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.275799512863159</c:v>
@@ -6041,13 +6041,13 @@
                   <c:v>2.275799512863159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.28093719482422</c:v>
+                  <c:v>47.28091812133789</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.38922119140625</c:v>
+                  <c:v>35.38922500610352</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.93729400634766</c:v>
+                  <c:v>34.93728637695312</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.275799512863159</c:v>
@@ -6056,28 +6056,28 @@
                   <c:v>91.92885589599609</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.796144962310791</c:v>
+                  <c:v>4.796133518218994</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.275799512863159</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.38817405700684</c:v>
+                  <c:v>20.38817977905273</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.00250339508057</c:v>
+                  <c:v>13.00249862670898</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.05129337310791</c:v>
+                  <c:v>9.051286697387695</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>86.64037322998047</c:v>
+                  <c:v>86.640380859375</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>95.79828643798828</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>48.14471817016602</c:v>
+                  <c:v>48.14474868774414</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>11.25981330871582</c:v>
@@ -6089,22 +6089,22 @@
                   <c:v>2.275799512863159</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>80.06219482421875</c:v>
+                  <c:v>80.06217193603516</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2.275799512863159</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>87.46659851074219</c:v>
+                  <c:v>87.46661376953125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>61.18279647827148</c:v>
+                  <c:v>61.18280410766602</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>128.7063140869141</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.990660667419434</c:v>
+                  <c:v>2.990663528442383</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>80.21104431152344</c:v>
@@ -6116,10 +6116,10 @@
                   <c:v>114.0078125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>80.70986938476562</c:v>
+                  <c:v>80.70988464355469</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>31.52716064453125</c:v>
+                  <c:v>31.52715110778809</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>84.88554382324219</c:v>
@@ -6143,7 +6143,7 @@
                   <c:v>2.275799512863159</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>16.58801460266113</c:v>
+                  <c:v>16.58801651000977</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2.275799512863159</c:v>
@@ -6161,13 +6161,13 @@
                   <c:v>2.275799512863159</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>92.42723083496094</c:v>
+                  <c:v>92.42724609375</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>13.52288627624512</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>98.38009643554688</c:v>
+                  <c:v>98.38007354736328</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>2.275799512863159</c:v>
@@ -6176,19 +6176,19 @@
                   <c:v>63.07271957397461</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>97.14331817626953</c:v>
+                  <c:v>97.14332580566406</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>61.32118606567383</c:v>
+                  <c:v>61.3211784362793</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>2.275799512863159</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>92.07279968261719</c:v>
+                  <c:v>92.07280731201172</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44.23359298706055</c:v>
+                  <c:v>44.23360824584961</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>2.275799512863159</c:v>
@@ -6212,16 +6212,16 @@
                   <c:v>2.275799512863159</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>66.82635498046875</c:v>
+                  <c:v>66.82634735107422</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>66.72064971923828</c:v>
+                  <c:v>66.72065734863281</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>92.88724517822266</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>64.50691223144531</c:v>
+                  <c:v>64.50690460205078</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2.275799512863159</c:v>
@@ -6236,10 +6236,10 @@
                   <c:v>2.275799512863159</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>68.24851226806641</c:v>
+                  <c:v>68.24850463867188</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>14.87956142425537</c:v>
+                  <c:v>14.87954807281494</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>87.47005462646484</c:v>
@@ -6254,7 +6254,7 @@
                   <c:v>92.66159057617188</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>81.72037506103516</c:v>
+                  <c:v>81.72038269042969</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2.275799512863159</c:v>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>84.27179718017578</v>
+        <v>84.27178955078125</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>96.7841</v>
       </c>
       <c r="F6">
-        <v>99.44269561767578</v>
+        <v>99.44268035888672</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.50808525085449</v>
+        <v>22.50812339782715</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>87.31022644042969</v>
+        <v>87.31023406982422</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>47.28093719482422</v>
+        <v>47.28091812133789</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.38922119140625</v>
+        <v>35.38922500610352</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>67.3374</v>
       </c>
       <c r="F22">
-        <v>34.93729400634766</v>
+        <v>34.93728637695312</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.796144962310791</v>
+        <v>4.796133518218994</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>20.38817405700684</v>
+        <v>20.38817977905273</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>13.00250339508057</v>
+        <v>13.00249862670898</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>9.05129337310791</v>
+        <v>9.051286697387695</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>90.9726</v>
       </c>
       <c r="F30">
-        <v>86.64037322998047</v>
+        <v>86.640380859375</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>48.14471817016602</v>
+        <v>48.14474868774414</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>80.06219482421875</v>
+        <v>80.06217193603516</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>87.46659851074219</v>
+        <v>87.46661376953125</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>61.18279647827148</v>
+        <v>61.18280410766602</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.7921</v>
       </c>
       <c r="F41">
-        <v>2.990660667419434</v>
+        <v>2.990663528442383</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>80.70986938476562</v>
+        <v>80.70988464355469</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>31.52716064453125</v>
+        <v>31.52715110778809</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>16.58801460266113</v>
+        <v>16.58801651000977</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>92.42723083496094</v>
+        <v>92.42724609375</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>98.38009643554688</v>
+        <v>98.38007354736328</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>97.14331817626953</v>
+        <v>97.14332580566406</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>39.3514</v>
       </c>
       <c r="F66">
-        <v>61.32118606567383</v>
+        <v>61.3211784362793</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>92.07279968261719</v>
+        <v>92.07280731201172</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>44.23359298706055</v>
+        <v>44.23360824584961</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>84.64230000000001</v>
       </c>
       <c r="F77">
-        <v>66.82635498046875</v>
+        <v>66.82634735107422</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>64.6464</v>
       </c>
       <c r="F78">
-        <v>66.72064971923828</v>
+        <v>66.72065734863281</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>49.6912</v>
       </c>
       <c r="F80">
-        <v>64.50691223144531</v>
+        <v>64.50690460205078</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5714</v>
       </c>
       <c r="F85">
-        <v>68.24851226806641</v>
+        <v>68.24850463867188</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>14.87956142425537</v>
+        <v>14.87954807281494</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>75.5564</v>
       </c>
       <c r="F91">
-        <v>81.72037506103516</v>
+        <v>81.72038269042969</v>
       </c>
     </row>
     <row r="92" spans="1:6">
